--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/87/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/87/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1291291291291291</v>
+        <v>0.07900790079007901</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1931.931931931932</v>
+        <v>112.9212921292129</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03693693693693694</v>
+        <v>0.02251225122512251</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.934934934934935</v>
+        <v>0.7973797379737974</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>870.8708708708709</v>
+        <v>312.8212821282128</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.7457457457458</v>
+        <v>903.5103510351036</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>780.7807807807809</v>
+        <v>483.3654365436543</v>
       </c>
     </row>
   </sheetData>
